--- a/Notebooks/13_Words_asseras.xlsx
+++ b/Notebooks/13_Words_asseras.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanod\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\In-Codice-Ratio-OCR-with-CNN\Notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="24">
   <si>
     <t>correct cuts</t>
   </si>
@@ -87,6 +87,15 @@
   </si>
   <si>
     <t>notes</t>
+  </si>
+  <si>
+    <t>pezzo sostanziale di "a", bassa parcentuale per la rete ocr rispetto a tagli puliti</t>
+  </si>
+  <si>
+    <t>most likely prediction by pipeline 2 is asseras, but also predicts assaas, assdas, assmas, aslas, aslaas, asldas, aslmas</t>
+  </si>
+  <si>
+    <t>other pipelines give too many fake positives to make a list</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,13 @@
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -922,6 +934,9 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
       <c r="L15">
         <v>17</v>
       </c>
@@ -939,6 +954,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
       <c r="L16">
         <v>18</v>
       </c>
@@ -1499,7 +1517,7 @@
         <v>3</v>
       </c>
       <c r="U48" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="12:21" x14ac:dyDescent="0.25">
@@ -1519,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="12:21" x14ac:dyDescent="0.25">
